--- a/biology/Zoologie/Amolops_tuberodepressus/Amolops_tuberodepressus.xlsx
+++ b/biology/Zoologie/Amolops_tuberodepressus/Amolops_tuberodepressus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amolops tuberodepressus est une espèce d'amphibiens de la famille des Ranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amolops tuberodepressus est une espèce d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du xian de Jingdong dans la province du Yunnan en République populaire de Chine. Elle se rencontre aux environs de 2 400 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du xian de Jingdong dans la province du Yunnan en République populaire de Chine. Elle se rencontre aux environs de 2 400 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amolops tuberodepressus mesure en moyenne 57 mm pour les mâles et 71 mm pour les femelles. Son dos est brun avec des taches rondes irrégulières de couleur verte ou bleu-vert. Sa tête tire davantage sur le vert tandis que la partie postérieure du dos est davantage brunâtre. Les côtés de la tête et les flancs sont verts avec des taches brunes. Les faces externes des membres sont vertes avec des barres transversales brunes ; leurs faces internes sont jaunes. Sa livrée nuptiale est jaune ou jaune-orangé. Son ventre est crème nuancé de jaune et s'estompant en grisâtre sur les côtés et sur le thorax. Son iris est brun avec des taches jaunes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amolops tuberodepressus mesure en moyenne 57 mm pour les mâles et 71 mm pour les femelles. Son dos est brun avec des taches rondes irrégulières de couleur verte ou bleu-vert. Sa tête tire davantage sur le vert tandis que la partie postérieure du dos est davantage brunâtre. Les côtés de la tête et les flancs sont verts avec des taches brunes. Les faces externes des membres sont vertes avec des barres transversales brunes ; leurs faces internes sont jaunes. Sa livrée nuptiale est jaune ou jaune-orangé. Son ventre est crème nuancé de jaune et s'estompant en grisâtre sur les côtés et sur le thorax. Son iris est brun avec des taches jaunes.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été relevée de sa synonymie avec Amolops mantzorum par Lu, Bi &amp; Fu en 2014[3] où elle avait été placée par Fei, Hu, Ye &amp; Huang en 2009[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été relevée de sa synonymie avec Amolops mantzorum par Lu, Bi &amp; Fu en 2014 où elle avait été placée par Fei, Hu, Ye &amp; Huang en 2009.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Liu &amp; Yang, 2000 : A new species of Amolops (Anura: Ranidae) from Yunnan, China, with a discussion of karyological diversity in Amolops. Herpetologica, vol. 56, p. 231–238.</t>
         </is>
